--- a/Problem Sets/1comparison.xlsx
+++ b/Problem Sets/1comparison.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\CS 32\Problem Sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BEF706-D66F-40B7-AEC8-6699F94B2437}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{99D25E83-A863-498B-9BBC-D0E0933483CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="1comparison" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
   <si>
-    <t>N</t>
+    <t>N = 10</t>
+  </si>
+  <si>
+    <t>Test Case</t>
   </si>
   <si>
     <t xml:space="preserve"> Bubble Sort</t>
@@ -33,11 +36,41 @@
   <si>
     <t xml:space="preserve"> Selection Sort</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>N = 20</t>
+  </si>
+  <si>
+    <t>N = 50</t>
+  </si>
+  <si>
+    <t>N = 100</t>
+  </si>
+  <si>
+    <t>N = 200</t>
+  </si>
+  <si>
+    <t>N = 1000</t>
+  </si>
+  <si>
+    <t>N = 5000</t>
+  </si>
+  <si>
+    <t>N = 10000</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,8 +643,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-PH"/>
-              <a:t>Comparisons Test</a:t>
+              <a:t>Comparison</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-PH" baseline="0"/>
+              <a:t> Test</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-PH"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -651,11 +689,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1comparison'!$B$1</c:f>
+              <c:f>'1comparison'!$B$266</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -667,7 +705,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -678,7 +716,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'1comparison'!$A$2:$A$9</c:f>
+              <c:f>'1comparison'!$A$267:$A$274</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -711,7 +749,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1comparison'!$B$2:$B$9</c:f>
+              <c:f>'1comparison'!$B$267:$B$274</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -745,16 +783,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2AAA-481B-B41B-D0B0B3BB7533}"/>
+              <c16:uniqueId val="{00000000-048F-46B4-B609-201389FD14AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1comparison'!$C$1</c:f>
+              <c:f>'1comparison'!$C$266</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -766,7 +804,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -777,7 +815,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'1comparison'!$A$2:$A$9</c:f>
+              <c:f>'1comparison'!$A$267:$A$274</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -810,33 +848,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1comparison'!$C$2:$C$9</c:f>
+              <c:f>'1comparison'!$C$267:$C$274</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>28.7</c:v>
+                  <c:v>28.766667000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.43</c:v>
+                  <c:v>113.933333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>653.23</c:v>
+                  <c:v>677</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2566.87</c:v>
+                  <c:v>2532.0666670000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10288.629999999999</c:v>
+                  <c:v>10081.866667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>248829.07</c:v>
+                  <c:v>249488.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6262739.6699999999</c:v>
+                  <c:v>6255942.4333330002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25040681.629999999</c:v>
+                  <c:v>25047035.466667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,16 +882,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2AAA-481B-B41B-D0B0B3BB7533}"/>
+              <c16:uniqueId val="{00000001-048F-46B4-B609-201389FD14AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1comparison'!$D$1</c:f>
+              <c:f>'1comparison'!$D$266</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -865,7 +903,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -876,7 +914,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'1comparison'!$A$2:$A$9</c:f>
+              <c:f>'1comparison'!$A$267:$A$274</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -909,7 +947,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1comparison'!$D$2:$D$9</c:f>
+              <c:f>'1comparison'!$D$267:$D$274</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -943,7 +981,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2AAA-481B-B41B-D0B0B3BB7533}"/>
+              <c16:uniqueId val="{00000002-048F-46B4-B609-201389FD14AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -956,11 +994,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="391445872"/>
-        <c:axId val="391445544"/>
+        <c:axId val="314115360"/>
+        <c:axId val="314113720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="391445872"/>
+        <c:axId val="314115360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -987,8 +1025,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-PH"/>
-                  <a:t>Input Size</a:t>
+                  <a:t>Input</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-PH" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-PH"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1058,7 +1101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391445544"/>
+        <c:crossAx val="314113720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1066,7 +1109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="391445544"/>
+        <c:axId val="314113720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,7 +1215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391445872"/>
+        <c:crossAx val="314115360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1819,23 +1862,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA12E482-2D1D-4E71-83E5-0A47F31C92A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772160A4-FD90-48F2-9EDD-D37E9CB84680}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,11 +2195,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="T261" sqref="T261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2165,125 +2208,3754 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>45</v>
-      </c>
-      <c r="C2">
-        <v>28.7</v>
-      </c>
-      <c r="D2">
-        <v>45</v>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>113.43</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>190</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1225</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>653.23</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>1225</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>4950</v>
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>2566.87</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>4950</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>19900</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>10288.629999999999</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>19900</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>499500</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>248829.07</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>499500</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5000</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>12497500</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>6262739.6699999999</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>12497500</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>45</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>45</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>28.766667000000002</v>
+      </c>
+      <c r="D33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>190</v>
+      </c>
+      <c r="C36">
+        <v>94</v>
+      </c>
+      <c r="D36">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>190</v>
+      </c>
+      <c r="C37">
+        <v>117</v>
+      </c>
+      <c r="D37">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>190</v>
+      </c>
+      <c r="C38">
+        <v>113</v>
+      </c>
+      <c r="D38">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>190</v>
+      </c>
+      <c r="C39">
+        <v>115</v>
+      </c>
+      <c r="D39">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>190</v>
+      </c>
+      <c r="C40">
+        <v>110</v>
+      </c>
+      <c r="D40">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>190</v>
+      </c>
+      <c r="C41">
+        <v>120</v>
+      </c>
+      <c r="D41">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>190</v>
+      </c>
+      <c r="C42">
+        <v>133</v>
+      </c>
+      <c r="D42">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>190</v>
+      </c>
+      <c r="C43">
+        <v>121</v>
+      </c>
+      <c r="D43">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>190</v>
+      </c>
+      <c r="C44">
+        <v>106</v>
+      </c>
+      <c r="D44">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>190</v>
+      </c>
+      <c r="C45">
+        <v>90</v>
+      </c>
+      <c r="D45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>190</v>
+      </c>
+      <c r="C46">
+        <v>133</v>
+      </c>
+      <c r="D46">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>190</v>
+      </c>
+      <c r="C47">
+        <v>102</v>
+      </c>
+      <c r="D47">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>190</v>
+      </c>
+      <c r="C48">
+        <v>133</v>
+      </c>
+      <c r="D48">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>190</v>
+      </c>
+      <c r="C49">
+        <v>113</v>
+      </c>
+      <c r="D49">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>190</v>
+      </c>
+      <c r="C50">
+        <v>131</v>
+      </c>
+      <c r="D50">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>16</v>
+      </c>
+      <c r="B51">
+        <v>190</v>
+      </c>
+      <c r="C51">
+        <v>146</v>
+      </c>
+      <c r="D51">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>17</v>
+      </c>
+      <c r="B52">
+        <v>190</v>
+      </c>
+      <c r="C52">
+        <v>112</v>
+      </c>
+      <c r="D52">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>190</v>
+      </c>
+      <c r="C53">
+        <v>114</v>
+      </c>
+      <c r="D53">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>19</v>
+      </c>
+      <c r="B54">
+        <v>190</v>
+      </c>
+      <c r="C54">
+        <v>118</v>
+      </c>
+      <c r="D54">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>20</v>
+      </c>
+      <c r="B55">
+        <v>190</v>
+      </c>
+      <c r="C55">
+        <v>101</v>
+      </c>
+      <c r="D55">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>21</v>
+      </c>
+      <c r="B56">
+        <v>190</v>
+      </c>
+      <c r="C56">
+        <v>126</v>
+      </c>
+      <c r="D56">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>190</v>
+      </c>
+      <c r="C57">
+        <v>105</v>
+      </c>
+      <c r="D57">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>23</v>
+      </c>
+      <c r="B58">
+        <v>190</v>
+      </c>
+      <c r="C58">
+        <v>117</v>
+      </c>
+      <c r="D58">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>24</v>
+      </c>
+      <c r="B59">
+        <v>190</v>
+      </c>
+      <c r="C59">
+        <v>113</v>
+      </c>
+      <c r="D59">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>25</v>
+      </c>
+      <c r="B60">
+        <v>190</v>
+      </c>
+      <c r="C60">
+        <v>110</v>
+      </c>
+      <c r="D60">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>26</v>
+      </c>
+      <c r="B61">
+        <v>190</v>
+      </c>
+      <c r="C61">
+        <v>90</v>
+      </c>
+      <c r="D61">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>27</v>
+      </c>
+      <c r="B62">
+        <v>190</v>
+      </c>
+      <c r="C62">
+        <v>126</v>
+      </c>
+      <c r="D62">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>28</v>
+      </c>
+      <c r="B63">
+        <v>190</v>
+      </c>
+      <c r="C63">
+        <v>102</v>
+      </c>
+      <c r="D63">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>29</v>
+      </c>
+      <c r="B64">
+        <v>190</v>
+      </c>
+      <c r="C64">
+        <v>119</v>
+      </c>
+      <c r="D64">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>30</v>
+      </c>
+      <c r="B65">
+        <v>190</v>
+      </c>
+      <c r="C65">
+        <v>88</v>
+      </c>
+      <c r="D65">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>190</v>
+      </c>
+      <c r="C66">
+        <v>113.933333</v>
+      </c>
+      <c r="D66">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>1225</v>
+      </c>
+      <c r="C69">
+        <v>769</v>
+      </c>
+      <c r="D69">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>1225</v>
+      </c>
+      <c r="C70">
+        <v>687</v>
+      </c>
+      <c r="D70">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>1225</v>
+      </c>
+      <c r="C71">
+        <v>686</v>
+      </c>
+      <c r="D71">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>1225</v>
+      </c>
+      <c r="C72">
+        <v>754</v>
+      </c>
+      <c r="D72">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>1225</v>
+      </c>
+      <c r="C73">
+        <v>661</v>
+      </c>
+      <c r="D73">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>1225</v>
+      </c>
+      <c r="C74">
+        <v>745</v>
+      </c>
+      <c r="D74">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>1225</v>
+      </c>
+      <c r="C75">
+        <v>559</v>
+      </c>
+      <c r="D75">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>1225</v>
+      </c>
+      <c r="C76">
+        <v>563</v>
+      </c>
+      <c r="D76">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>1225</v>
+      </c>
+      <c r="C77">
+        <v>745</v>
+      </c>
+      <c r="D77">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78">
+        <v>1225</v>
+      </c>
+      <c r="C78">
+        <v>708</v>
+      </c>
+      <c r="D78">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>11</v>
+      </c>
+      <c r="B79">
+        <v>1225</v>
+      </c>
+      <c r="C79">
+        <v>577</v>
+      </c>
+      <c r="D79">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80">
+        <v>1225</v>
+      </c>
+      <c r="C80">
+        <v>576</v>
+      </c>
+      <c r="D80">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>13</v>
+      </c>
+      <c r="B81">
+        <v>1225</v>
+      </c>
+      <c r="C81">
+        <v>575</v>
+      </c>
+      <c r="D81">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>14</v>
+      </c>
+      <c r="B82">
+        <v>1225</v>
+      </c>
+      <c r="C82">
+        <v>774</v>
+      </c>
+      <c r="D82">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>15</v>
+      </c>
+      <c r="B83">
+        <v>1225</v>
+      </c>
+      <c r="C83">
+        <v>640</v>
+      </c>
+      <c r="D83">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>16</v>
+      </c>
+      <c r="B84">
+        <v>1225</v>
+      </c>
+      <c r="C84">
+        <v>625</v>
+      </c>
+      <c r="D84">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>17</v>
+      </c>
+      <c r="B85">
+        <v>1225</v>
+      </c>
+      <c r="C85">
+        <v>705</v>
+      </c>
+      <c r="D85">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>18</v>
+      </c>
+      <c r="B86">
+        <v>1225</v>
+      </c>
+      <c r="C86">
+        <v>752</v>
+      </c>
+      <c r="D86">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>19</v>
+      </c>
+      <c r="B87">
+        <v>1225</v>
+      </c>
+      <c r="C87">
+        <v>682</v>
+      </c>
+      <c r="D87">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>20</v>
+      </c>
+      <c r="B88">
+        <v>1225</v>
+      </c>
+      <c r="C88">
+        <v>755</v>
+      </c>
+      <c r="D88">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>21</v>
+      </c>
+      <c r="B89">
+        <v>1225</v>
+      </c>
+      <c r="C89">
+        <v>649</v>
+      </c>
+      <c r="D89">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>22</v>
+      </c>
+      <c r="B90">
+        <v>1225</v>
+      </c>
+      <c r="C90">
+        <v>746</v>
+      </c>
+      <c r="D90">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>23</v>
+      </c>
+      <c r="B91">
+        <v>1225</v>
+      </c>
+      <c r="C91">
+        <v>686</v>
+      </c>
+      <c r="D91">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>24</v>
+      </c>
+      <c r="B92">
+        <v>1225</v>
+      </c>
+      <c r="C92">
+        <v>687</v>
+      </c>
+      <c r="D92">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>25</v>
+      </c>
+      <c r="B93">
+        <v>1225</v>
+      </c>
+      <c r="C93">
+        <v>704</v>
+      </c>
+      <c r="D93">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>26</v>
+      </c>
+      <c r="B94">
+        <v>1225</v>
+      </c>
+      <c r="C94">
+        <v>697</v>
+      </c>
+      <c r="D94">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>27</v>
+      </c>
+      <c r="B95">
+        <v>1225</v>
+      </c>
+      <c r="C95">
+        <v>700</v>
+      </c>
+      <c r="D95">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>28</v>
+      </c>
+      <c r="B96">
+        <v>1225</v>
+      </c>
+      <c r="C96">
+        <v>587</v>
+      </c>
+      <c r="D96">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>29</v>
+      </c>
+      <c r="B97">
+        <v>1225</v>
+      </c>
+      <c r="C97">
+        <v>636</v>
+      </c>
+      <c r="D97">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>30</v>
+      </c>
+      <c r="B98">
+        <v>1225</v>
+      </c>
+      <c r="C98">
+        <v>680</v>
+      </c>
+      <c r="D98">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99">
+        <v>1225</v>
+      </c>
+      <c r="C99">
+        <v>677</v>
+      </c>
+      <c r="D99">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>4950</v>
+      </c>
+      <c r="C102">
+        <v>2535</v>
+      </c>
+      <c r="D102">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>4950</v>
+      </c>
+      <c r="C103">
+        <v>2325</v>
+      </c>
+      <c r="D103">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>4950</v>
+      </c>
+      <c r="C104">
+        <v>2765</v>
+      </c>
+      <c r="D104">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <v>4950</v>
+      </c>
+      <c r="C105">
+        <v>2530</v>
+      </c>
+      <c r="D105">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>4950</v>
+      </c>
+      <c r="C106">
+        <v>2479</v>
+      </c>
+      <c r="D106">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>6</v>
+      </c>
+      <c r="B107">
+        <v>4950</v>
+      </c>
+      <c r="C107">
+        <v>2150</v>
+      </c>
+      <c r="D107">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>4950</v>
+      </c>
+      <c r="C108">
+        <v>2688</v>
+      </c>
+      <c r="D108">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>4950</v>
+      </c>
+      <c r="C109">
+        <v>2533</v>
+      </c>
+      <c r="D109">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>9</v>
+      </c>
+      <c r="B110">
+        <v>4950</v>
+      </c>
+      <c r="C110">
+        <v>2529</v>
+      </c>
+      <c r="D110">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>10</v>
+      </c>
+      <c r="B111">
+        <v>4950</v>
+      </c>
+      <c r="C111">
+        <v>2106</v>
+      </c>
+      <c r="D111">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>11</v>
+      </c>
+      <c r="B112">
+        <v>4950</v>
+      </c>
+      <c r="C112">
+        <v>2753</v>
+      </c>
+      <c r="D112">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>12</v>
+      </c>
+      <c r="B113">
+        <v>4950</v>
+      </c>
+      <c r="C113">
+        <v>2653</v>
+      </c>
+      <c r="D113">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>13</v>
+      </c>
+      <c r="B114">
+        <v>4950</v>
+      </c>
+      <c r="C114">
+        <v>2228</v>
+      </c>
+      <c r="D114">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>14</v>
+      </c>
+      <c r="B115">
+        <v>4950</v>
+      </c>
+      <c r="C115">
+        <v>2675</v>
+      </c>
+      <c r="D115">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>15</v>
+      </c>
+      <c r="B116">
+        <v>4950</v>
+      </c>
+      <c r="C116">
+        <v>2506</v>
+      </c>
+      <c r="D116">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>16</v>
+      </c>
+      <c r="B117">
+        <v>4950</v>
+      </c>
+      <c r="C117">
+        <v>2782</v>
+      </c>
+      <c r="D117">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>17</v>
+      </c>
+      <c r="B118">
+        <v>4950</v>
+      </c>
+      <c r="C118">
+        <v>2753</v>
+      </c>
+      <c r="D118">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>18</v>
+      </c>
+      <c r="B119">
+        <v>4950</v>
+      </c>
+      <c r="C119">
+        <v>2391</v>
+      </c>
+      <c r="D119">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>19</v>
+      </c>
+      <c r="B120">
+        <v>4950</v>
+      </c>
+      <c r="C120">
+        <v>2424</v>
+      </c>
+      <c r="D120">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>20</v>
+      </c>
+      <c r="B121">
+        <v>4950</v>
+      </c>
+      <c r="C121">
+        <v>2436</v>
+      </c>
+      <c r="D121">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>21</v>
+      </c>
+      <c r="B122">
+        <v>4950</v>
+      </c>
+      <c r="C122">
+        <v>2703</v>
+      </c>
+      <c r="D122">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>22</v>
+      </c>
+      <c r="B123">
+        <v>4950</v>
+      </c>
+      <c r="C123">
+        <v>2419</v>
+      </c>
+      <c r="D123">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>23</v>
+      </c>
+      <c r="B124">
+        <v>4950</v>
+      </c>
+      <c r="C124">
+        <v>2655</v>
+      </c>
+      <c r="D124">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>24</v>
+      </c>
+      <c r="B125">
+        <v>4950</v>
+      </c>
+      <c r="C125">
+        <v>2358</v>
+      </c>
+      <c r="D125">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>25</v>
+      </c>
+      <c r="B126">
+        <v>4950</v>
+      </c>
+      <c r="C126">
+        <v>2409</v>
+      </c>
+      <c r="D126">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>26</v>
+      </c>
+      <c r="B127">
+        <v>4950</v>
+      </c>
+      <c r="C127">
+        <v>2820</v>
+      </c>
+      <c r="D127">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>27</v>
+      </c>
+      <c r="B128">
+        <v>4950</v>
+      </c>
+      <c r="C128">
+        <v>2815</v>
+      </c>
+      <c r="D128">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>28</v>
+      </c>
+      <c r="B129">
+        <v>4950</v>
+      </c>
+      <c r="C129">
+        <v>2353</v>
+      </c>
+      <c r="D129">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>29</v>
+      </c>
+      <c r="B130">
+        <v>4950</v>
+      </c>
+      <c r="C130">
+        <v>2681</v>
+      </c>
+      <c r="D130">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>30</v>
+      </c>
+      <c r="B131">
+        <v>4950</v>
+      </c>
+      <c r="C131">
+        <v>2508</v>
+      </c>
+      <c r="D131">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132">
+        <v>4950</v>
+      </c>
+      <c r="C132">
+        <v>2532.0666670000001</v>
+      </c>
+      <c r="D132">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>19900</v>
+      </c>
+      <c r="C135">
+        <v>10900</v>
+      </c>
+      <c r="D135">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136">
+        <v>19900</v>
+      </c>
+      <c r="C136">
+        <v>10611</v>
+      </c>
+      <c r="D136">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137">
+        <v>19900</v>
+      </c>
+      <c r="C137">
+        <v>10316</v>
+      </c>
+      <c r="D137">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>4</v>
+      </c>
+      <c r="B138">
+        <v>19900</v>
+      </c>
+      <c r="C138">
+        <v>9234</v>
+      </c>
+      <c r="D138">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>5</v>
+      </c>
+      <c r="B139">
+        <v>19900</v>
+      </c>
+      <c r="C139">
+        <v>10040</v>
+      </c>
+      <c r="D139">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>6</v>
+      </c>
+      <c r="B140">
+        <v>19900</v>
+      </c>
+      <c r="C140">
+        <v>10286</v>
+      </c>
+      <c r="D140">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>7</v>
+      </c>
+      <c r="B141">
+        <v>19900</v>
+      </c>
+      <c r="C141">
+        <v>10169</v>
+      </c>
+      <c r="D141">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>8</v>
+      </c>
+      <c r="B142">
+        <v>19900</v>
+      </c>
+      <c r="C142">
+        <v>9853</v>
+      </c>
+      <c r="D142">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>9</v>
+      </c>
+      <c r="B143">
+        <v>19900</v>
+      </c>
+      <c r="C143">
+        <v>9932</v>
+      </c>
+      <c r="D143">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>10</v>
+      </c>
+      <c r="B144">
+        <v>19900</v>
+      </c>
+      <c r="C144">
+        <v>10115</v>
+      </c>
+      <c r="D144">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>11</v>
+      </c>
+      <c r="B145">
+        <v>19900</v>
+      </c>
+      <c r="C145">
+        <v>11192</v>
+      </c>
+      <c r="D145">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>12</v>
+      </c>
+      <c r="B146">
+        <v>19900</v>
+      </c>
+      <c r="C146">
+        <v>10385</v>
+      </c>
+      <c r="D146">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>13</v>
+      </c>
+      <c r="B147">
+        <v>19900</v>
+      </c>
+      <c r="C147">
+        <v>10281</v>
+      </c>
+      <c r="D147">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>14</v>
+      </c>
+      <c r="B148">
+        <v>19900</v>
+      </c>
+      <c r="C148">
+        <v>10165</v>
+      </c>
+      <c r="D148">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>15</v>
+      </c>
+      <c r="B149">
+        <v>19900</v>
+      </c>
+      <c r="C149">
+        <v>10043</v>
+      </c>
+      <c r="D149">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>16</v>
+      </c>
+      <c r="B150">
+        <v>19900</v>
+      </c>
+      <c r="C150">
+        <v>9815</v>
+      </c>
+      <c r="D150">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>17</v>
+      </c>
+      <c r="B151">
+        <v>19900</v>
+      </c>
+      <c r="C151">
+        <v>9831</v>
+      </c>
+      <c r="D151">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>18</v>
+      </c>
+      <c r="B152">
+        <v>19900</v>
+      </c>
+      <c r="C152">
+        <v>10263</v>
+      </c>
+      <c r="D152">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>19</v>
+      </c>
+      <c r="B153">
+        <v>19900</v>
+      </c>
+      <c r="C153">
+        <v>9759</v>
+      </c>
+      <c r="D153">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>20</v>
+      </c>
+      <c r="B154">
+        <v>19900</v>
+      </c>
+      <c r="C154">
+        <v>9218</v>
+      </c>
+      <c r="D154">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>21</v>
+      </c>
+      <c r="B155">
+        <v>19900</v>
+      </c>
+      <c r="C155">
+        <v>9589</v>
+      </c>
+      <c r="D155">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>22</v>
+      </c>
+      <c r="B156">
+        <v>19900</v>
+      </c>
+      <c r="C156">
+        <v>10713</v>
+      </c>
+      <c r="D156">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>23</v>
+      </c>
+      <c r="B157">
+        <v>19900</v>
+      </c>
+      <c r="C157">
+        <v>10255</v>
+      </c>
+      <c r="D157">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>24</v>
+      </c>
+      <c r="B158">
+        <v>19900</v>
+      </c>
+      <c r="C158">
+        <v>10384</v>
+      </c>
+      <c r="D158">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>25</v>
+      </c>
+      <c r="B159">
+        <v>19900</v>
+      </c>
+      <c r="C159">
+        <v>9892</v>
+      </c>
+      <c r="D159">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>26</v>
+      </c>
+      <c r="B160">
+        <v>19900</v>
+      </c>
+      <c r="C160">
+        <v>10001</v>
+      </c>
+      <c r="D160">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>27</v>
+      </c>
+      <c r="B161">
+        <v>19900</v>
+      </c>
+      <c r="C161">
+        <v>9992</v>
+      </c>
+      <c r="D161">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>28</v>
+      </c>
+      <c r="B162">
+        <v>19900</v>
+      </c>
+      <c r="C162">
+        <v>9248</v>
+      </c>
+      <c r="D162">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>29</v>
+      </c>
+      <c r="B163">
+        <v>19900</v>
+      </c>
+      <c r="C163">
+        <v>10043</v>
+      </c>
+      <c r="D163">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>30</v>
+      </c>
+      <c r="B164">
+        <v>19900</v>
+      </c>
+      <c r="C164">
+        <v>9931</v>
+      </c>
+      <c r="D164">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165">
+        <v>19900</v>
+      </c>
+      <c r="C165">
+        <v>10081.866667</v>
+      </c>
+      <c r="D165">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>499500</v>
+      </c>
+      <c r="C168">
+        <v>254481</v>
+      </c>
+      <c r="D168">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>2</v>
+      </c>
+      <c r="B169">
+        <v>499500</v>
+      </c>
+      <c r="C169">
+        <v>241977</v>
+      </c>
+      <c r="D169">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>3</v>
+      </c>
+      <c r="B170">
+        <v>499500</v>
+      </c>
+      <c r="C170">
+        <v>245997</v>
+      </c>
+      <c r="D170">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>4</v>
+      </c>
+      <c r="B171">
+        <v>499500</v>
+      </c>
+      <c r="C171">
+        <v>258473</v>
+      </c>
+      <c r="D171">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>5</v>
+      </c>
+      <c r="B172">
+        <v>499500</v>
+      </c>
+      <c r="C172">
+        <v>256734</v>
+      </c>
+      <c r="D172">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>6</v>
+      </c>
+      <c r="B173">
+        <v>499500</v>
+      </c>
+      <c r="C173">
+        <v>252132</v>
+      </c>
+      <c r="D173">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174">
+        <v>499500</v>
+      </c>
+      <c r="C174">
+        <v>247362</v>
+      </c>
+      <c r="D174">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>8</v>
+      </c>
+      <c r="B175">
+        <v>499500</v>
+      </c>
+      <c r="C175">
+        <v>255101</v>
+      </c>
+      <c r="D175">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>9</v>
+      </c>
+      <c r="B176">
+        <v>499500</v>
+      </c>
+      <c r="C176">
+        <v>246804</v>
+      </c>
+      <c r="D176">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>10</v>
+      </c>
+      <c r="B177">
+        <v>499500</v>
+      </c>
+      <c r="C177">
+        <v>247379</v>
+      </c>
+      <c r="D177">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>11</v>
+      </c>
+      <c r="B178">
+        <v>499500</v>
+      </c>
+      <c r="C178">
+        <v>250206</v>
+      </c>
+      <c r="D178">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>12</v>
+      </c>
+      <c r="B179">
+        <v>499500</v>
+      </c>
+      <c r="C179">
+        <v>247517</v>
+      </c>
+      <c r="D179">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>13</v>
+      </c>
+      <c r="B180">
+        <v>499500</v>
+      </c>
+      <c r="C180">
+        <v>253279</v>
+      </c>
+      <c r="D180">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>14</v>
+      </c>
+      <c r="B181">
+        <v>499500</v>
+      </c>
+      <c r="C181">
+        <v>248923</v>
+      </c>
+      <c r="D181">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>15</v>
+      </c>
+      <c r="B182">
+        <v>499500</v>
+      </c>
+      <c r="C182">
+        <v>255341</v>
+      </c>
+      <c r="D182">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>16</v>
+      </c>
+      <c r="B183">
+        <v>499500</v>
+      </c>
+      <c r="C183">
+        <v>253761</v>
+      </c>
+      <c r="D183">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>17</v>
+      </c>
+      <c r="B184">
+        <v>499500</v>
+      </c>
+      <c r="C184">
+        <v>248833</v>
+      </c>
+      <c r="D184">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>18</v>
+      </c>
+      <c r="B185">
+        <v>499500</v>
+      </c>
+      <c r="C185">
+        <v>245978</v>
+      </c>
+      <c r="D185">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>19</v>
+      </c>
+      <c r="B186">
+        <v>499500</v>
+      </c>
+      <c r="C186">
+        <v>242648</v>
+      </c>
+      <c r="D186">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>20</v>
+      </c>
+      <c r="B187">
+        <v>499500</v>
+      </c>
+      <c r="C187">
+        <v>257965</v>
+      </c>
+      <c r="D187">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>21</v>
+      </c>
+      <c r="B188">
+        <v>499500</v>
+      </c>
+      <c r="C188">
+        <v>242635</v>
+      </c>
+      <c r="D188">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>22</v>
+      </c>
+      <c r="B189">
+        <v>499500</v>
+      </c>
+      <c r="C189">
+        <v>248214</v>
+      </c>
+      <c r="D189">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>23</v>
+      </c>
+      <c r="B190">
+        <v>499500</v>
+      </c>
+      <c r="C190">
+        <v>258932</v>
+      </c>
+      <c r="D190">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>24</v>
+      </c>
+      <c r="B191">
+        <v>499500</v>
+      </c>
+      <c r="C191">
+        <v>244177</v>
+      </c>
+      <c r="D191">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>25</v>
+      </c>
+      <c r="B192">
+        <v>499500</v>
+      </c>
+      <c r="C192">
+        <v>245480</v>
+      </c>
+      <c r="D192">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>26</v>
+      </c>
+      <c r="B193">
+        <v>499500</v>
+      </c>
+      <c r="C193">
+        <v>246315</v>
+      </c>
+      <c r="D193">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>27</v>
+      </c>
+      <c r="B194">
+        <v>499500</v>
+      </c>
+      <c r="C194">
+        <v>246454</v>
+      </c>
+      <c r="D194">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>28</v>
+      </c>
+      <c r="B195">
+        <v>499500</v>
+      </c>
+      <c r="C195">
+        <v>246731</v>
+      </c>
+      <c r="D195">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>29</v>
+      </c>
+      <c r="B196">
+        <v>499500</v>
+      </c>
+      <c r="C196">
+        <v>248271</v>
+      </c>
+      <c r="D196">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>30</v>
+      </c>
+      <c r="B197">
+        <v>499500</v>
+      </c>
+      <c r="C197">
+        <v>246558</v>
+      </c>
+      <c r="D197">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198">
+        <v>499500</v>
+      </c>
+      <c r="C198">
+        <v>249488.6</v>
+      </c>
+      <c r="D198">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" t="s">
+        <v>3</v>
+      </c>
+      <c r="D200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>12497500</v>
+      </c>
+      <c r="C201">
+        <v>6257740</v>
+      </c>
+      <c r="D201">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>2</v>
+      </c>
+      <c r="B202">
+        <v>12497500</v>
+      </c>
+      <c r="C202">
+        <v>6230884</v>
+      </c>
+      <c r="D202">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>3</v>
+      </c>
+      <c r="B203">
+        <v>12497500</v>
+      </c>
+      <c r="C203">
+        <v>6338179</v>
+      </c>
+      <c r="D203">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204">
+        <v>12497500</v>
+      </c>
+      <c r="C204">
+        <v>6240253</v>
+      </c>
+      <c r="D204">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>5</v>
+      </c>
+      <c r="B205">
+        <v>12497500</v>
+      </c>
+      <c r="C205">
+        <v>6323580</v>
+      </c>
+      <c r="D205">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>6</v>
+      </c>
+      <c r="B206">
+        <v>12497500</v>
+      </c>
+      <c r="C206">
+        <v>6253160</v>
+      </c>
+      <c r="D206">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>7</v>
+      </c>
+      <c r="B207">
+        <v>12497500</v>
+      </c>
+      <c r="C207">
+        <v>6301281</v>
+      </c>
+      <c r="D207">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>8</v>
+      </c>
+      <c r="B208">
+        <v>12497500</v>
+      </c>
+      <c r="C208">
+        <v>6279734</v>
+      </c>
+      <c r="D208">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>9</v>
+      </c>
+      <c r="B209">
+        <v>12497500</v>
+      </c>
+      <c r="C209">
+        <v>6205088</v>
+      </c>
+      <c r="D209">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>10</v>
+      </c>
+      <c r="B210">
+        <v>12497500</v>
+      </c>
+      <c r="C210">
+        <v>6258589</v>
+      </c>
+      <c r="D210">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>11</v>
+      </c>
+      <c r="B211">
+        <v>12497500</v>
+      </c>
+      <c r="C211">
+        <v>6260348</v>
+      </c>
+      <c r="D211">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>12</v>
+      </c>
+      <c r="B212">
+        <v>12497500</v>
+      </c>
+      <c r="C212">
+        <v>6264727</v>
+      </c>
+      <c r="D212">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>13</v>
+      </c>
+      <c r="B213">
+        <v>12497500</v>
+      </c>
+      <c r="C213">
+        <v>6212619</v>
+      </c>
+      <c r="D213">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>14</v>
+      </c>
+      <c r="B214">
+        <v>12497500</v>
+      </c>
+      <c r="C214">
+        <v>6215276</v>
+      </c>
+      <c r="D214">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>15</v>
+      </c>
+      <c r="B215">
+        <v>12497500</v>
+      </c>
+      <c r="C215">
+        <v>6085885</v>
+      </c>
+      <c r="D215">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>16</v>
+      </c>
+      <c r="B216">
+        <v>12497500</v>
+      </c>
+      <c r="C216">
+        <v>6372204</v>
+      </c>
+      <c r="D216">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>17</v>
+      </c>
+      <c r="B217">
+        <v>12497500</v>
+      </c>
+      <c r="C217">
+        <v>6362730</v>
+      </c>
+      <c r="D217">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>18</v>
+      </c>
+      <c r="B218">
+        <v>12497500</v>
+      </c>
+      <c r="C218">
+        <v>6288662</v>
+      </c>
+      <c r="D218">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>19</v>
+      </c>
+      <c r="B219">
+        <v>12497500</v>
+      </c>
+      <c r="C219">
+        <v>6172487</v>
+      </c>
+      <c r="D219">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>20</v>
+      </c>
+      <c r="B220">
+        <v>12497500</v>
+      </c>
+      <c r="C220">
+        <v>6285870</v>
+      </c>
+      <c r="D220">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>21</v>
+      </c>
+      <c r="B221">
+        <v>12497500</v>
+      </c>
+      <c r="C221">
+        <v>6276496</v>
+      </c>
+      <c r="D221">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>22</v>
+      </c>
+      <c r="B222">
+        <v>12497500</v>
+      </c>
+      <c r="C222">
+        <v>6249426</v>
+      </c>
+      <c r="D222">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>23</v>
+      </c>
+      <c r="B223">
+        <v>12497500</v>
+      </c>
+      <c r="C223">
+        <v>6282414</v>
+      </c>
+      <c r="D223">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>24</v>
+      </c>
+      <c r="B224">
+        <v>12497500</v>
+      </c>
+      <c r="C224">
+        <v>6348162</v>
+      </c>
+      <c r="D224">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>25</v>
+      </c>
+      <c r="B225">
+        <v>12497500</v>
+      </c>
+      <c r="C225">
+        <v>6212845</v>
+      </c>
+      <c r="D225">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>26</v>
+      </c>
+      <c r="B226">
+        <v>12497500</v>
+      </c>
+      <c r="C226">
+        <v>6264633</v>
+      </c>
+      <c r="D226">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>27</v>
+      </c>
+      <c r="B227">
+        <v>12497500</v>
+      </c>
+      <c r="C227">
+        <v>6293346</v>
+      </c>
+      <c r="D227">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>28</v>
+      </c>
+      <c r="B228">
+        <v>12497500</v>
+      </c>
+      <c r="C228">
+        <v>6245925</v>
+      </c>
+      <c r="D228">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>29</v>
+      </c>
+      <c r="B229">
+        <v>12497500</v>
+      </c>
+      <c r="C229">
+        <v>6135191</v>
+      </c>
+      <c r="D229">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>30</v>
+      </c>
+      <c r="B230">
+        <v>12497500</v>
+      </c>
+      <c r="C230">
+        <v>6160539</v>
+      </c>
+      <c r="D230">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231">
+        <v>12497500</v>
+      </c>
+      <c r="C231">
+        <v>6255942.4333330002</v>
+      </c>
+      <c r="D231">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233" t="s">
+        <v>3</v>
+      </c>
+      <c r="D233" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234">
+        <v>49995000</v>
+      </c>
+      <c r="C234">
+        <v>24736528</v>
+      </c>
+      <c r="D234">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>2</v>
+      </c>
+      <c r="B235">
+        <v>49995000</v>
+      </c>
+      <c r="C235">
+        <v>25252649</v>
+      </c>
+      <c r="D235">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>3</v>
+      </c>
+      <c r="B236">
+        <v>49995000</v>
+      </c>
+      <c r="C236">
+        <v>25063930</v>
+      </c>
+      <c r="D236">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>4</v>
+      </c>
+      <c r="B237">
+        <v>49995000</v>
+      </c>
+      <c r="C237">
+        <v>25030322</v>
+      </c>
+      <c r="D237">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>5</v>
+      </c>
+      <c r="B238">
+        <v>49995000</v>
+      </c>
+      <c r="C238">
+        <v>24957154</v>
+      </c>
+      <c r="D238">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>6</v>
+      </c>
+      <c r="B239">
+        <v>49995000</v>
+      </c>
+      <c r="C239">
+        <v>25027919</v>
+      </c>
+      <c r="D239">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>7</v>
+      </c>
+      <c r="B240">
+        <v>49995000</v>
+      </c>
+      <c r="C240">
+        <v>25217683</v>
+      </c>
+      <c r="D240">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>8</v>
+      </c>
+      <c r="B241">
+        <v>49995000</v>
+      </c>
+      <c r="C241">
+        <v>24993955</v>
+      </c>
+      <c r="D241">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>9</v>
+      </c>
+      <c r="B242">
+        <v>49995000</v>
+      </c>
+      <c r="C242">
+        <v>25116925</v>
+      </c>
+      <c r="D242">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>10</v>
+      </c>
+      <c r="B243">
+        <v>49995000</v>
+      </c>
+      <c r="C243">
+        <v>24840126</v>
+      </c>
+      <c r="D243">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>11</v>
+      </c>
+      <c r="B244">
+        <v>49995000</v>
+      </c>
+      <c r="C244">
+        <v>24864005</v>
+      </c>
+      <c r="D244">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>12</v>
+      </c>
+      <c r="B245">
+        <v>49995000</v>
+      </c>
+      <c r="C245">
+        <v>24839340</v>
+      </c>
+      <c r="D245">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>13</v>
+      </c>
+      <c r="B246">
+        <v>49995000</v>
+      </c>
+      <c r="C246">
+        <v>25001867</v>
+      </c>
+      <c r="D246">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>14</v>
+      </c>
+      <c r="B247">
+        <v>49995000</v>
+      </c>
+      <c r="C247">
+        <v>24954755</v>
+      </c>
+      <c r="D247">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>15</v>
+      </c>
+      <c r="B248">
+        <v>49995000</v>
+      </c>
+      <c r="C248">
+        <v>24943667</v>
+      </c>
+      <c r="D248">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>16</v>
+      </c>
+      <c r="B249">
+        <v>49995000</v>
+      </c>
+      <c r="C249">
+        <v>25113451</v>
+      </c>
+      <c r="D249">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>17</v>
+      </c>
+      <c r="B250">
+        <v>49995000</v>
+      </c>
+      <c r="C250">
+        <v>25247211</v>
+      </c>
+      <c r="D250">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>18</v>
+      </c>
+      <c r="B251">
+        <v>49995000</v>
+      </c>
+      <c r="C251">
+        <v>24759694</v>
+      </c>
+      <c r="D251">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>19</v>
+      </c>
+      <c r="B252">
+        <v>49995000</v>
+      </c>
+      <c r="C252">
+        <v>25128136</v>
+      </c>
+      <c r="D252">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>20</v>
+      </c>
+      <c r="B253">
+        <v>49995000</v>
+      </c>
+      <c r="C253">
+        <v>25148700</v>
+      </c>
+      <c r="D253">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>21</v>
+      </c>
+      <c r="B254">
+        <v>49995000</v>
+      </c>
+      <c r="C254">
+        <v>25225282</v>
+      </c>
+      <c r="D254">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>22</v>
+      </c>
+      <c r="B255">
+        <v>49995000</v>
+      </c>
+      <c r="C255">
+        <v>25191949</v>
+      </c>
+      <c r="D255">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>23</v>
+      </c>
+      <c r="B256">
+        <v>49995000</v>
+      </c>
+      <c r="C256">
+        <v>25159976</v>
+      </c>
+      <c r="D256">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>24</v>
+      </c>
+      <c r="B257">
+        <v>49995000</v>
+      </c>
+      <c r="C257">
+        <v>24922675</v>
+      </c>
+      <c r="D257">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>25</v>
+      </c>
+      <c r="B258">
+        <v>49995000</v>
+      </c>
+      <c r="C258">
+        <v>25273642</v>
+      </c>
+      <c r="D258">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>26</v>
+      </c>
+      <c r="B259">
+        <v>49995000</v>
+      </c>
+      <c r="C259">
+        <v>24858733</v>
+      </c>
+      <c r="D259">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>27</v>
+      </c>
+      <c r="B260">
+        <v>49995000</v>
+      </c>
+      <c r="C260">
+        <v>24761638</v>
+      </c>
+      <c r="D260">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>28</v>
+      </c>
+      <c r="B261">
+        <v>49995000</v>
+      </c>
+      <c r="C261">
+        <v>25038489</v>
+      </c>
+      <c r="D261">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>29</v>
+      </c>
+      <c r="B262">
+        <v>49995000</v>
+      </c>
+      <c r="C262">
+        <v>25485264</v>
+      </c>
+      <c r="D262">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>30</v>
+      </c>
+      <c r="B263">
+        <v>49995000</v>
+      </c>
+      <c r="C263">
+        <v>25255399</v>
+      </c>
+      <c r="D263">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264">
+        <v>49995000</v>
+      </c>
+      <c r="C264">
+        <v>25047035.466667</v>
+      </c>
+      <c r="D264">
+        <v>49995000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>14</v>
+      </c>
+      <c r="B266" t="s">
+        <v>2</v>
+      </c>
+      <c r="C266" t="s">
+        <v>3</v>
+      </c>
+      <c r="D266" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>10</v>
+      </c>
+      <c r="B267">
+        <v>45</v>
+      </c>
+      <c r="C267">
+        <v>28.766667000000002</v>
+      </c>
+      <c r="D267">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>20</v>
+      </c>
+      <c r="B268">
+        <v>190</v>
+      </c>
+      <c r="C268">
+        <v>113.933333</v>
+      </c>
+      <c r="D268">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>50</v>
+      </c>
+      <c r="B269">
+        <v>1225</v>
+      </c>
+      <c r="C269">
+        <v>677</v>
+      </c>
+      <c r="D269">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>100</v>
+      </c>
+      <c r="B270">
+        <v>4950</v>
+      </c>
+      <c r="C270">
+        <v>2532.0666670000001</v>
+      </c>
+      <c r="D270">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>200</v>
+      </c>
+      <c r="B271">
+        <v>19900</v>
+      </c>
+      <c r="C271">
+        <v>10081.866667</v>
+      </c>
+      <c r="D271">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>1000</v>
+      </c>
+      <c r="B272">
+        <v>499500</v>
+      </c>
+      <c r="C272">
+        <v>249488.6</v>
+      </c>
+      <c r="D272">
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>5000</v>
+      </c>
+      <c r="B273">
+        <v>12497500</v>
+      </c>
+      <c r="C273">
+        <v>6255942.4333330002</v>
+      </c>
+      <c r="D273">
+        <v>12497500</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
         <v>10000</v>
       </c>
-      <c r="B9">
-        <v>49995000</v>
-      </c>
-      <c r="C9">
-        <v>25040681.629999999</v>
-      </c>
-      <c r="D9">
+      <c r="B274">
+        <v>49995000</v>
+      </c>
+      <c r="C274">
+        <v>25047035.466667</v>
+      </c>
+      <c r="D274">
         <v>49995000</v>
       </c>
     </row>
